--- a/biology/Botanique/Square_de_la_Porte-de-la-Villette/Square_de_la_Porte-de-la-Villette.xlsx
+++ b/biology/Botanique/Square_de_la_Porte-de-la-Villette/Square_de_la_Porte-de-la-Villette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square de la Porte-de-la-Villette est un square du 19e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On accède à ce square par le 22, rue du Chemin-de-Fer et la rue Forceval.
 Il est desservi par la ligne 7 aux stations Aubervilliers - Pantin - Quatre Chemins et Porte de la Villette.
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il porte ce nom en raison de la proximité de la porte de la Villette. 
 </t>
@@ -575,10 +591,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Si le nom actuel du square a été donné lors de la création du boulevard périphérique à la fin des années 1960, cet espace vert existait déjà auparavant et a été divisé en deux par le passage du périphérique. Depuis la rue du Chemin-de-Fer, vers le nord-est, une voie non autorisée aux véhicules à moteur, la rue Forceval, traverse le square, puis passe sous le périphérique dans un tunnel avant d'atteindre le territoire de la ville de Pantin.
-En septembre 2021, le square est victime d'un nouvel épisode de la crise du crack à Paris : la Préfecture de police de Paris y procède au déplacement de centaines de toxicomanes qui étaient auparavant établis rue Riquet[1],[2]. Consécutivement, pour s'opposer à ce que des toxicomanes se rendent directement depuis le square vers les quartiers proches d'Aubervilliers et Pantin par la rue Forceval, le souterrain de celui-ci est condamné au moyen de parpaings par les autorités. Cette mesure est critiquée, car nuisant à la circulation des habitants de ces quartiers, sans pour autant que ceux-ci soient efficacement protégés des nuisances emmenées par les toxicomanes, ces derniers pouvant toujours franchir le périphérique par d'autres itinéraires.
+En septembre 2021, le square est victime d'un nouvel épisode de la crise du crack à Paris : la Préfecture de police de Paris y procède au déplacement de centaines de toxicomanes qui étaient auparavant établis rue Riquet,. Consécutivement, pour s'opposer à ce que des toxicomanes se rendent directement depuis le square vers les quartiers proches d'Aubervilliers et Pantin par la rue Forceval, le souterrain de celui-ci est condamné au moyen de parpaings par les autorités. Cette mesure est critiquée, car nuisant à la circulation des habitants de ces quartiers, sans pour autant que ceux-ci soient efficacement protégés des nuisances emmenées par les toxicomanes, ces derniers pouvant toujours franchir le périphérique par d'autres itinéraires.
 </t>
         </is>
       </c>
